--- a/Predictions/Week 5/Week 5.xlsx
+++ b/Predictions/Week 5/Week 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greg_yonan\Desktop\Tools\Programs\NFL\2025 Season\Predictions\Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D945B1C-64C0-4385-9B3A-CD17BF73B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E574F47-0E6A-40A5-A7A3-097A05912300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +273,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,23 +579,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -618,43 +628,43 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
@@ -664,7 +674,7 @@
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -677,7 +687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -687,20 +697,20 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -710,20 +720,20 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -739,14 +749,14 @@
       <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>19</v>
       </c>
@@ -765,18 +775,18 @@
       <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -792,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -802,20 +812,20 @@
       <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
@@ -825,43 +835,43 @@
       <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
@@ -871,20 +881,20 @@
       <c r="C13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>31</v>
       </c>
@@ -894,40 +904,57 @@
       <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="13">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0.28570000000000001</v>
       </c>
     </row>
   </sheetData>
